--- a/result/problem_1/meonf/result_7.xlsx
+++ b/result/problem_1/meonf/result_7.xlsx
@@ -611,10 +611,10 @@
         <v>11369665</v>
       </c>
       <c r="C8" t="n">
-        <v>11296</v>
+        <v>11598</v>
       </c>
       <c r="D8" t="n">
-        <v>11401</v>
+        <v>11703</v>
       </c>
       <c r="E8" t="n">
         <v>13500</v>
@@ -1028,13 +1028,13 @@
         <v>11145</v>
       </c>
       <c r="D26" t="n">
-        <v>12199</v>
+        <v>11598</v>
       </c>
       <c r="E26" t="n">
         <v>6750</v>
       </c>
       <c r="F26" t="n">
-        <v>5449</v>
+        <v>4848</v>
       </c>
       <c r="G26" t="n">
         <v>453</v>
@@ -2359,10 +2359,10 @@
         <v>11490932</v>
       </c>
       <c r="C84" t="n">
-        <v>11647</v>
+        <v>11949</v>
       </c>
       <c r="D84" t="n">
-        <v>11897</v>
+        <v>12199</v>
       </c>
       <c r="E84" t="n">
         <v>13500</v>
@@ -2382,10 +2382,10 @@
         <v>11492742</v>
       </c>
       <c r="C85" t="n">
-        <v>11401</v>
+        <v>11703</v>
       </c>
       <c r="D85" t="n">
-        <v>11647</v>
+        <v>11949</v>
       </c>
       <c r="E85" t="n">
         <v>13500</v>
